--- a/output/table2-xtabOutcomeBySN.xlsx
+++ b/output/table2-xtabOutcomeBySN.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="table2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -25,12 +25,6 @@
     <t>24,405 (22)</t>
   </si>
   <si>
-    <t>108,082 (99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1,385 (1)</t>
-  </si>
-  <si>
     <t>Spayed/neutered</t>
   </si>
   <si>
@@ -40,12 +34,6 @@
     <t>17,852 (39)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 43,544 (95)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2,188 (5)</t>
-  </si>
-  <si>
     <t>Table 2. Unadjusted frequency of primary and secondary outcome by spay/neuter status</t>
   </si>
   <si>
@@ -65,6 +53,18 @@
   </si>
   <si>
     <t>a Expressed as a percentage of within-outcome row totals</t>
+  </si>
+  <si>
+    <t>108,259 (99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1,208 (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43,812 (96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1,920 (4)</t>
   </si>
 </sst>
 </file>
@@ -894,29 +894,29 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -930,32 +930,32 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
